--- a/DataSource/Endoso_ABMAsistencia.xlsx
+++ b/DataSource/Endoso_ABMAsistencia.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6464673-ED76-4FCD-B2BF-DE42A6D63230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,31 +38,31 @@
     <t>ProveedorAsistencia</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>lmattioli</t>
-  </si>
-  <si>
     <t>silverarrow</t>
   </si>
   <si>
-    <t>04440024613</t>
-  </si>
-  <si>
     <t>ABM Asistencia</t>
   </si>
   <si>
     <t>Sin Asistencia</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>04104013014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,30 +490,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
